--- a/Tarea Análisis Stack/Análisis Stack.xlsx
+++ b/Tarea Análisis Stack/Análisis Stack.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Douglas\Desktop\Universidad\7mo semestre\Arquihard\Tarea analisis Stack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Douglas\Desktop\GitHub - Proyectos\Arquitectura-Hardware\Tarea Análisis Stack\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -260,9 +260,6 @@
     <t>Donde inicia el ESP cuando se ejecuta el programa</t>
   </si>
   <si>
-    <t>RET Final de Programa (0x248000)</t>
-  </si>
-  <si>
     <t>Se crea la variable local A en el segmento de datos, y se pasa al registro eax y luego se añade a la pila para ser usada en la función FuncInt_int</t>
   </si>
   <si>
@@ -279,6 +276,9 @@
   </si>
   <si>
     <t>Douglas Lopez - A00347533</t>
+  </si>
+  <si>
+    <t>RET Final de Programa</t>
   </si>
 </sst>
 </file>
@@ -456,14 +456,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,15 +486,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>11905</xdr:colOff>
+      <xdr:colOff>11906</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>89302</xdr:rowOff>
+      <xdr:rowOff>59537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>581282</xdr:colOff>
+      <xdr:colOff>581283</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>458396</xdr:rowOff>
+      <xdr:rowOff>428631</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -511,7 +511,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6768702" y="3095630"/>
+          <a:off x="6768703" y="3065865"/>
           <a:ext cx="1328400" cy="369094"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -536,7 +536,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectángulo 5"/>
+        <xdr:cNvPr id="6" name="Rectángulo 5" descr="0d7b1537-c417-4e86-b76a-dc09237dbfa5"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -858,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,27 +873,27 @@
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
     </row>
     <row r="5" spans="2:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
@@ -977,7 +977,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="J11" t="s">
         <v>25</v>
@@ -1181,8 +1181,8 @@
       </c>
     </row>
     <row r="27" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="21" t="s">
-        <v>82</v>
+      <c r="B27" s="20" t="s">
+        <v>81</v>
       </c>
       <c r="D27"/>
       <c r="J27" t="s">
@@ -1193,8 +1193,8 @@
       </c>
     </row>
     <row r="28" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="20" t="s">
-        <v>79</v>
+      <c r="B28" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="D28"/>
       <c r="J28" t="s">
@@ -1205,7 +1205,7 @@
       </c>
     </row>
     <row r="29" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="22"/>
+      <c r="B29" s="21"/>
       <c r="D29"/>
       <c r="J29" t="s">
         <v>58</v>
@@ -1215,14 +1215,14 @@
       </c>
     </row>
     <row r="30" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30"/>
+    </row>
+    <row r="31" spans="2:11" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="19" t="s">
         <v>80</v>
-      </c>
-      <c r="D30"/>
-    </row>
-    <row r="31" spans="2:11" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="20" t="s">
-        <v>81</v>
       </c>
       <c r="D31"/>
     </row>

--- a/Tarea Análisis Stack/Análisis Stack.xlsx
+++ b/Tarea Análisis Stack/Análisis Stack.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="84">
   <si>
     <t xml:space="preserve">Dirección </t>
   </si>
@@ -65,9 +65,6 @@
     <t>0x19FF6C</t>
   </si>
   <si>
-    <t>0x76e86359</t>
-  </si>
-  <si>
     <t>0x19ff80</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
     <t>lea ecx,[esp+4]</t>
   </si>
   <si>
-    <t xml:space="preserve">Guarda en la Pila valor de ecx que estaba al inicio del programa y disminuye el ESP en 4, 0x19FF6C </t>
-  </si>
-  <si>
     <t>Guarda la dirección de esp de inicio aumentada en 4, es decir ecx = 0x19ff78</t>
   </si>
   <si>
@@ -257,9 +251,6 @@
     <t>En este momento ECX = 0x19FF78, entonces [ecx - 4] sería 0x19FF74, por tanto esp = 0x19FF74</t>
   </si>
   <si>
-    <t>Donde inicia el ESP cuando se ejecuta el programa</t>
-  </si>
-  <si>
     <t>Se crea la variable local A en el segmento de datos, y se pasa al registro eax y luego se añade a la pila para ser usada en la función FuncInt_int</t>
   </si>
   <si>
@@ -278,7 +269,13 @@
     <t>Douglas Lopez - A00347533</t>
   </si>
   <si>
-    <t>RET Final de Programa</t>
+    <t>Ret Final de programa</t>
+  </si>
+  <si>
+    <t>Donde inicia el ESP cuando se ejecuta el programa. Y lo que hay almacenado es el ret del main. Es decir 0x74970419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guarda en la Pila valor de ecx que estaba al inicio del programa (retorno del main) y disminuye el ESP en 4, 0x19FF6C </t>
   </si>
 </sst>
 </file>
@@ -404,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -463,6 +460,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -486,15 +486,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>11906</xdr:colOff>
+      <xdr:colOff>26789</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>59537</xdr:rowOff>
+      <xdr:rowOff>133951</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>581283</xdr:colOff>
+      <xdr:colOff>596166</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>428631</xdr:rowOff>
+      <xdr:rowOff>503045</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -511,7 +511,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6768703" y="3065865"/>
+          <a:off x="7423547" y="3140279"/>
           <a:ext cx="1328400" cy="369094"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -858,32 +858,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="49.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="0" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="J4" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K4" s="22"/>
       <c r="L4" s="22"/>
@@ -903,10 +903,10 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
         <v>69</v>
-      </c>
-      <c r="K5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="6" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -918,7 +918,7 @@
         <v>10</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -930,7 +930,7 @@
         <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -939,25 +939,25 @@
       </c>
       <c r="D8" s="5"/>
       <c r="J8" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="5"/>
       <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" t="s">
         <v>19</v>
-      </c>
-      <c r="K9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -966,41 +966,39 @@
       </c>
       <c r="D10" s="5"/>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:19" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>84</v>
-      </c>
+      <c r="D11" s="18"/>
       <c r="J11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>77</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="J12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1009,10 +1007,10 @@
       </c>
       <c r="D13" s="6"/>
       <c r="J13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1020,209 +1018,209 @@
         <v>12</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="J14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" t="s">
         <v>42</v>
-      </c>
-      <c r="K15" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" spans="2:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="7"/>
       <c r="J17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="7"/>
       <c r="J18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="7"/>
       <c r="J19" t="s">
+        <v>52</v>
+      </c>
+      <c r="K19" t="s">
         <v>53</v>
-      </c>
-      <c r="K19" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="14"/>
       <c r="J20" t="s">
+        <v>54</v>
+      </c>
+      <c r="K20" t="s">
         <v>55</v>
-      </c>
-      <c r="K20" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J21" t="s">
+        <v>57</v>
+      </c>
+      <c r="K21" t="s">
         <v>58</v>
-      </c>
-      <c r="K21" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>41</v>
-      </c>
       <c r="J22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J23" t="s">
+        <v>60</v>
+      </c>
+      <c r="K23" t="s">
         <v>61</v>
-      </c>
-      <c r="K23" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D24" s="7"/>
       <c r="J24" t="s">
+        <v>62</v>
+      </c>
+      <c r="K24" t="s">
         <v>63</v>
-      </c>
-      <c r="K24" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25" s="7"/>
       <c r="J25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D26"/>
       <c r="J26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D27"/>
       <c r="J27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D28"/>
       <c r="J28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="21"/>
       <c r="D29"/>
       <c r="J29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D30"/>
     </row>
     <row r="31" spans="2:11" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D31"/>
     </row>
